--- a/RawData/FatDBC-soybean.xlsx
+++ b/RawData/FatDBC-soybean.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini/Documents/GitHub/ExperimentalStatistics/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C226A5C2-14E1-3D49-8F9B-5A52E1C782EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56FCE5-C051-B742-9913-89E7C2A3873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{42D150B8-D37F-E94E-B90F-441B36F3256D}"/>
+    <workbookView xWindow="11680" yWindow="1640" windowWidth="27840" windowHeight="18800" xr2:uid="{42D150B8-D37F-E94E-B90F-441B36F3256D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD144B1-BA2B-5946-804E-919359705240}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E19"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
